--- a/WorkingDeck/CLARA-SSoT/Baseline/DOC_Baseline_Schema.xlsx
+++ b/WorkingDeck/CLARA-SSoT/Baseline/DOC_Baseline_Schema.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gi-Bum Lee\clara-ssot\WorkingDeck\CLARA-SSoT\Baseline\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gibum\CLARA-SSoT\WorkingDeck\CLARA-SSoT\Baseline\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{536AC4DC-BA3C-45ED-8A22-5300813F3980}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9245F83-A617-444F-8755-C63600D24553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1_개요" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="183">
   <si>
     <t>DOC Baseline 스키마 개요</t>
   </si>
@@ -85,9 +85,6 @@
     <t>• metadata: 문서 메타정보 (Dublin Core 기반)
 • content[]: 본문 블록 배열 (JATS 계층 구조)
 • relations[]: 문서 간/블록 간 관계</t>
-  </si>
-  <si>
-    <t>Metadata 필드 정의 (Dublin Core 기반)</t>
   </si>
   <si>
     <t>카테고리</t>
@@ -689,6 +686,14 @@
     <t>• 템플릿 기반 생성 (procedureStep, table)
 • 모델 기반 생성 (Self-Instruct)
 • 관계 기반 multi-hop 데이터 생성</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>`</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1224,10 +1229,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1239,428 +1244,431 @@
     <col min="5" max="5" width="50" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="20.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
-        <v>17</v>
+        <v>181</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
       <c r="E1" s="8"/>
     </row>
-    <row r="3" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="B6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="D7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="3" t="s">
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="C8" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="D8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="D9" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="E9" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="I10" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="D14" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
       <c r="B18" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" s="3" t="s">
         <v>61</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="3"/>
       <c r="B19" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="3"/>
       <c r="B20" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" s="3" t="s">
         <v>65</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="3"/>
       <c r="B22" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" s="3" t="s">
         <v>69</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="C23" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="D23" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A24" s="3"/>
       <c r="B24" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="3"/>
       <c r="B25" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="D25" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" s="3" t="s">
         <v>78</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="3"/>
       <c r="B26" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="D26" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E26" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="C27" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E27" s="3" t="s">
         <v>84</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="3"/>
       <c r="B28" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E28" s="3" t="s">
         <v>86</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="3"/>
       <c r="B29" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E29" s="3" t="s">
         <v>88</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1683,14 +1691,14 @@
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="3" max="3" width="30.375" customWidth="1"/>
     <col min="4" max="4" width="40" customWidth="1"/>
     <col min="5" max="5" width="30" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -1699,124 +1707,124 @@
     </row>
     <row r="3" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>93</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>96</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="3" t="s">
+      <c r="E6" s="3" t="s">
         <v>99</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="C7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="3" t="s">
+      <c r="E7" s="3" t="s">
         <v>103</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>105</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>106</v>
       </c>
       <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="3" t="s">
+      <c r="E9" s="3" t="s">
         <v>108</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -1825,90 +1833,90 @@
     </row>
     <row r="12" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="C13" s="3" t="s">
         <v>113</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>116</v>
-      </c>
       <c r="C14" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="66" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="C15" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="C16" s="3" t="s">
         <v>121</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>124</v>
-      </c>
       <c r="C17" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="C18" s="3" t="s">
         <v>126</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="66" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="C19" s="3" t="s">
         <v>129</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -1925,8 +1933,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1934,11 +1942,12 @@
     <col min="1" max="1" width="30" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
     <col min="3" max="3" width="60" customWidth="1"/>
+    <col min="4" max="4" width="30.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -1946,77 +1955,77 @@
     </row>
     <row r="3" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="3" t="s">
+    </row>
+    <row r="5" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+      <c r="B5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="3" t="s">
+    </row>
+    <row r="6" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+      <c r="B6" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="3" t="s">
+    </row>
+    <row r="7" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>137</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="66" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -2024,10 +2033,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>2</v>
@@ -2035,101 +2044,101 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="C11" s="3" t="s">
         <v>142</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>144</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>146</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="C14" s="3" t="s">
         <v>149</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>151</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>153</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>155</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>157</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>159</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -2157,13 +2166,13 @@
   <sheetData>
     <row r="1" spans="1:2" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B1" s="8"/>
     </row>
     <row r="3" spans="1:2" ht="409.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B3" s="8"/>
     </row>
@@ -2369,7 +2378,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
@@ -2383,7 +2392,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -2391,72 +2400,72 @@
     </row>
     <row r="3" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>169</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>173</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>177</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="C7" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>181</v>
-      </c>
       <c r="D7" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
